--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_1</t>
+          <t>model_16_4_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9554480989206189</v>
+        <v>0.9442203711436157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.811973419279205</v>
+        <v>0.7861723180837906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9745169470523838</v>
+        <v>0.7215521566420339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3720793532606304</v>
+        <v>0.9831284852925384</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9033699560198738</v>
+        <v>0.9021639594947011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2979187676604635</v>
+        <v>0.3729986350042166</v>
       </c>
       <c r="H2" t="n">
-        <v>1.257334611062752</v>
+        <v>1.429866693559634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1679133985451186</v>
+        <v>1.72960879815184</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6375074664562785</v>
+        <v>0.2249790696248473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4027104400918596</v>
+        <v>0.9772939338883435</v>
       </c>
       <c r="L2" t="n">
-        <v>1.250634985652771</v>
+        <v>0.3741463946544263</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5458193544209141</v>
+        <v>0.6107361418847067</v>
       </c>
       <c r="N2" t="n">
-        <v>1.021821339304187</v>
+        <v>1.027320634541903</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5690560143404387</v>
+        <v>0.6367364438428406</v>
       </c>
       <c r="P2" t="n">
-        <v>148.4218688427601</v>
+        <v>147.9723610377023</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.3998040581387</v>
+        <v>236.9502962530809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_2</t>
+          <t>model_16_4_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9596455277067845</v>
+        <v>0.9464821204503525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8117751929841219</v>
+        <v>0.7861644406973957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9668181914900463</v>
+        <v>0.7306053302412137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3985928959417572</v>
+        <v>0.9806120850629384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9005133148537109</v>
+        <v>0.9032991444850826</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2698505420399916</v>
+        <v>0.3578743069756691</v>
       </c>
       <c r="H3" t="n">
-        <v>1.25866015121072</v>
+        <v>1.42991936967873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2186421794999584</v>
+        <v>1.673374034328558</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6105891265208164</v>
+        <v>0.2585348820267269</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4146156320365781</v>
+        <v>0.9659544581776427</v>
       </c>
       <c r="L3" t="n">
-        <v>1.30136004474826</v>
+        <v>0.3877513710777936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5194714063738173</v>
+        <v>0.5982259664839609</v>
       </c>
       <c r="N3" t="n">
-        <v>1.019765455817085</v>
+        <v>1.026212838963093</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5415863795972053</v>
+        <v>0.6236936843756518</v>
       </c>
       <c r="P3" t="n">
-        <v>148.6197740424961</v>
+        <v>148.0551469041281</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.5977092578747</v>
+        <v>237.0330821195067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_0</t>
+          <t>model_16_4_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9496996863291125</v>
+        <v>0.9482591926619399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8110137714219268</v>
+        <v>0.7859401061539655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9810176599215839</v>
+        <v>0.7383479241044871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.334570373934616</v>
+        <v>0.9782139615510448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9039401930125369</v>
+        <v>0.9041057910804814</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3363584291288721</v>
+        <v>0.3459910169141193</v>
       </c>
       <c r="H4" t="n">
-        <v>1.263751780703144</v>
+        <v>1.431419495803613</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1250787824150489</v>
+        <v>1.625280077826915</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6755891165878016</v>
+        <v>0.2905134924779094</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4003339495014253</v>
+        <v>0.9578967851524123</v>
       </c>
       <c r="L4" t="n">
-        <v>1.187656631807094</v>
+        <v>0.401240787149521</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5799641619349183</v>
+        <v>0.5882100108924696</v>
       </c>
       <c r="N4" t="n">
-        <v>1.024636888328598</v>
+        <v>1.025342436247213</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6046544369998096</v>
+        <v>0.6132513288187443</v>
       </c>
       <c r="P4" t="n">
-        <v>148.1791558684725</v>
+        <v>148.1226849338748</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.1570910838511</v>
+        <v>237.1006201492534</v>
       </c>
     </row>
     <row r="5">
@@ -687,492 +687,492 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9626026151919217</v>
+        <v>0.9413604590646236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.810715869418809</v>
+        <v>0.7859025406671977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9583014778277007</v>
+        <v>0.7109941106236862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4161268490356249</v>
+        <v>0.9857373338928234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8959162542451011</v>
+        <v>0.9006225871169101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2500764844107428</v>
+        <v>0.3921228802451202</v>
       </c>
       <c r="H5" t="n">
-        <v>1.265743852769704</v>
+        <v>1.431670696386602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2747606649271086</v>
+        <v>1.795191239245304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5927874726464304</v>
+        <v>0.1901904723316456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4337741072329974</v>
+        <v>0.9926908557884748</v>
       </c>
       <c r="L5" t="n">
-        <v>1.348781245538998</v>
+        <v>0.3605852806129033</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5000764785617724</v>
+        <v>0.6261971576469508</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01831708643661</v>
+        <v>1.028721407805082</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5213657695551663</v>
+        <v>0.6528556670547981</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7719769405326</v>
+        <v>147.8723600366002</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.7499121559112</v>
+        <v>236.8502952519788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_4</t>
+          <t>model_16_4_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.964579964400967</v>
+        <v>0.9496428028347308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8090375834823313</v>
+        <v>0.7855488878333347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9493008335984104</v>
+        <v>0.7449486698032852</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4264370314875323</v>
+        <v>0.9759467851828976</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8900567468292566</v>
+        <v>0.9046448183133307</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2368539411450006</v>
+        <v>0.3367388093177276</v>
       </c>
       <c r="H6" t="n">
-        <v>1.276966558554727</v>
+        <v>1.434035574515066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3340678744966362</v>
+        <v>1.584278834300216</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5823198788067495</v>
+        <v>0.3207459427839633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4581938913183857</v>
+        <v>0.9525123885420896</v>
       </c>
       <c r="L6" t="n">
-        <v>1.387803413072874</v>
+        <v>0.4144880732870801</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4866764234529967</v>
+        <v>0.5802920034928343</v>
       </c>
       <c r="N6" t="n">
-        <v>1.017348588864832</v>
+        <v>1.024664749631969</v>
       </c>
       <c r="O6" t="n">
-        <v>0.507395246358472</v>
+        <v>0.6049962354515716</v>
       </c>
       <c r="P6" t="n">
-        <v>148.8806232198309</v>
+        <v>148.1768953913371</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.8585584352096</v>
+        <v>237.1548306067157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_5</t>
+          <t>model_16_4_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9657942314660137</v>
+        <v>0.9377606984751117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8069350574193286</v>
+        <v>0.7852776370279525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.940096194838413</v>
+        <v>0.6987057107087591</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4310439104568689</v>
+        <v>0.9883932721783368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8833412771243179</v>
+        <v>0.8985746452470906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2287341316898479</v>
+        <v>0.4161944958825602</v>
       </c>
       <c r="H7" t="n">
-        <v>1.291026160019268</v>
+        <v>1.435849429899652</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3947192485587803</v>
+        <v>1.871521960114786</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5776426640101616</v>
+        <v>0.1547739412841062</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4861809401585542</v>
+        <v>1.013147950699446</v>
       </c>
       <c r="L7" t="n">
-        <v>1.418684581912431</v>
+        <v>0.3472070921130931</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4782615724578423</v>
+        <v>0.6451313787768815</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016753845812565</v>
+        <v>1.030484555848925</v>
       </c>
       <c r="O7" t="n">
-        <v>0.498622157735311</v>
+        <v>0.6725959571774711</v>
       </c>
       <c r="P7" t="n">
-        <v>148.9503898937891</v>
+        <v>147.7532051796071</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.9283251091678</v>
+        <v>236.7311403949858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_6</t>
+          <t>model_16_4_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9664225136396346</v>
+        <v>0.9507070105480765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.804561864595529</v>
+        <v>0.7850316697664853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9309101838696801</v>
+        <v>0.7505576693974894</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4312410635107581</v>
+        <v>0.9738144641955685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8761034112332351</v>
+        <v>0.9049655044434316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.224532805901872</v>
+        <v>0.3296224474383587</v>
       </c>
       <c r="H8" t="n">
-        <v>1.306895711359564</v>
+        <v>1.437494214109658</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4552478800380384</v>
+        <v>1.549437928621182</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5774425009090728</v>
+        <v>0.3491801172009567</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5163451006853084</v>
+        <v>0.9493090229110692</v>
       </c>
       <c r="L8" t="n">
-        <v>1.442871226056207</v>
+        <v>0.4273703396242988</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4738489272984292</v>
+        <v>0.5741275532826818</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016446115768342</v>
+        <v>1.024143505037677</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4940216571360269</v>
+        <v>0.5985693518338019</v>
       </c>
       <c r="P8" t="n">
-        <v>148.9874669074735</v>
+        <v>148.2196147563475</v>
       </c>
       <c r="Q8" t="n">
-        <v>237.9654021228521</v>
+        <v>237.1975499717261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_7</t>
+          <t>model_16_4_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9666083858491049</v>
+        <v>0.9515127436375196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8020370596145465</v>
+        <v>0.7844228315786524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9219130748365558</v>
+        <v>0.755310763813005</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4281121125615369</v>
+        <v>0.9718162520371671</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8686096999588253</v>
+        <v>0.9051095867369312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2232898775812811</v>
+        <v>0.3242345065591932</v>
       </c>
       <c r="H9" t="n">
-        <v>1.323779093893052</v>
+        <v>1.441565517875138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5145317954283328</v>
+        <v>1.519913570233699</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5806192233224257</v>
+        <v>0.3758259708842288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5475755093753792</v>
+        <v>0.947869770558964</v>
       </c>
       <c r="L9" t="n">
-        <v>1.461634662743531</v>
+        <v>0.4397648862848144</v>
       </c>
       <c r="M9" t="n">
-        <v>0.472535583402225</v>
+        <v>0.5694159345848984</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016355076318806</v>
+        <v>1.023748860259174</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4926524014711646</v>
+        <v>0.5936571497736585</v>
       </c>
       <c r="P9" t="n">
-        <v>148.9985689043845</v>
+        <v>148.2525764786396</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.9765041197631</v>
+        <v>237.2305116940183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_8</t>
+          <t>model_16_4_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9664663859179662</v>
+        <v>0.9332418886254568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7994509617224423</v>
+        <v>0.784198513628973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9132280878249034</v>
+        <v>0.6844120127990414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4225440211875489</v>
+        <v>0.9910255155671144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.861065647117073</v>
+        <v>0.8958874018750529</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2242394317746552</v>
+        <v>0.4464117981544087</v>
       </c>
       <c r="H10" t="n">
-        <v>1.341072342405438</v>
+        <v>1.443065533037534</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5717590706863074</v>
+        <v>1.960308805667724</v>
       </c>
       <c r="J10" t="n">
-        <v>0.586272325897187</v>
+        <v>0.119673378062511</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5790157190124892</v>
+        <v>1.039991091865118</v>
       </c>
       <c r="L10" t="n">
-        <v>1.476052946701967</v>
+        <v>0.3342687590887835</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4735392610699299</v>
+        <v>0.6681405526941234</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016424627305486</v>
+        <v>1.032697850469164</v>
       </c>
       <c r="O10" t="n">
-        <v>0.493698807775083</v>
+        <v>0.6965846792639262</v>
       </c>
       <c r="P10" t="n">
-        <v>148.9900818122682</v>
+        <v>147.6130268774139</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.9680170276468</v>
+        <v>236.5909620927925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_9</t>
+          <t>model_16_4_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9660875974538283</v>
+        <v>0.9521102091216967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7968708543495348</v>
+        <v>0.7837514802404604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9049410672267222</v>
+        <v>0.7593283458675038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4152608074718346</v>
+        <v>0.9699490467859442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8536273137776622</v>
+        <v>0.9051124272062316</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2267723919785052</v>
+        <v>0.3202392521154249</v>
       </c>
       <c r="H11" t="n">
-        <v>1.358325532288373</v>
+        <v>1.446054847364918</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6263640583741809</v>
+        <v>1.494957926171393</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5936667365566789</v>
+        <v>0.4007248674861436</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6100153374466912</v>
+        <v>0.9478413968287682</v>
       </c>
       <c r="L11" t="n">
-        <v>1.487017432535161</v>
+        <v>0.4515809010669781</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4762062494114343</v>
+        <v>0.5658968564282938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016610156349145</v>
+        <v>1.023456224103659</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4964793353317121</v>
+        <v>0.5899882571744312</v>
       </c>
       <c r="P11" t="n">
-        <v>148.9676168860558</v>
+        <v>148.2773737993766</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.9455521014344</v>
+        <v>237.2553090147552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_10</t>
+          <t>model_16_4_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9655432356196596</v>
+        <v>0.9525408706484387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7943456570155002</v>
+        <v>0.7830418735512445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8971070618626125</v>
+        <v>0.7627184917874328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4068352383858728</v>
+        <v>0.9682080951063987</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8464079366394319</v>
+        <v>0.9050044561286413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2304125420701475</v>
+        <v>0.3173594165030875</v>
       </c>
       <c r="H12" t="n">
-        <v>1.375211538488527</v>
+        <v>1.450799990563142</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6779840297964588</v>
+        <v>1.473899669302118</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6022209435720652</v>
+        <v>0.4239401920090041</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6401024451905706</v>
+        <v>0.9489199306555609</v>
       </c>
       <c r="L12" t="n">
-        <v>1.495249896066984</v>
+        <v>0.4627465911349739</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4800130644786114</v>
+        <v>0.5633466219860447</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016876782553636</v>
+        <v>1.023245287845663</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5004482143974924</v>
+        <v>0.5873294539722624</v>
       </c>
       <c r="P12" t="n">
-        <v>148.9357678311473</v>
+        <v>148.2954406827481</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.9137030465259</v>
+        <v>237.2733758981267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_11</t>
+          <t>model_16_4_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9648885681662384</v>
+        <v>0.9275776232839058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.791909690384119</v>
+        <v>0.782537652724669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8897563305975577</v>
+        <v>0.6677683576825271</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3977174919273898</v>
+        <v>0.9935323409170557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8394862845262392</v>
+        <v>0.8923857986566126</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2347903063456417</v>
+        <v>0.4842887665749039</v>
       </c>
       <c r="H13" t="n">
-        <v>1.391500858569168</v>
+        <v>1.454171717552176</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7264196026865852</v>
+        <v>2.063692663756796</v>
       </c>
       <c r="J13" t="n">
-        <v>0.611477895823471</v>
+        <v>0.08624524521725291</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6689487693135301</v>
+        <v>1.074968954487024</v>
       </c>
       <c r="L13" t="n">
-        <v>1.501340363438582</v>
+        <v>0.3225206948687391</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4845516549818417</v>
+        <v>0.6959085906747408</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01719743600021</v>
+        <v>1.035472184514005</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5051800220946229</v>
+        <v>0.7255348601091413</v>
       </c>
       <c r="P13" t="n">
-        <v>148.8981249532188</v>
+        <v>147.4501478500415</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.8760601685974</v>
+        <v>236.4280830654202</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9641661488277904</v>
+        <v>0.9528389391950655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7895861533486075</v>
+        <v>0.7823140768766226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8829013439512751</v>
+        <v>0.7655751966671844</v>
       </c>
       <c r="E14" t="n">
-        <v>0.388255847835978</v>
+        <v>0.9665885468957151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8329146684461844</v>
+        <v>0.9048116610963179</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2396211277882784</v>
+        <v>0.315366230759315</v>
       </c>
       <c r="H14" t="n">
-        <v>1.407038361424538</v>
+        <v>1.455666770277535</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7715886060679631</v>
+        <v>1.456154938963554</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6210839961875042</v>
+        <v>0.4455366198324675</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6963363011277337</v>
+        <v>0.9508457793980107</v>
       </c>
       <c r="L14" t="n">
-        <v>1.505767251045791</v>
+        <v>0.4732183940993036</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4895111109957346</v>
+        <v>0.5615747775312875</v>
       </c>
       <c r="N14" t="n">
-        <v>1.017551274043531</v>
+        <v>1.023099295088131</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5103506124185164</v>
+        <v>0.5854821784308426</v>
       </c>
       <c r="P14" t="n">
-        <v>148.8573924744231</v>
+        <v>148.3080413563295</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.8353276898018</v>
+        <v>237.2859765717081</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9634082860944073</v>
+        <v>0.9530326781179843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7873894948896316</v>
+        <v>0.7815841843686733</v>
       </c>
       <c r="D15" t="n">
-        <v>0.87654088505919</v>
+        <v>0.7679810958223182</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3787184181781469</v>
+        <v>0.965085301223007</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8267247646737823</v>
+        <v>0.9045563303066144</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2446889593760486</v>
+        <v>0.3140706976896703</v>
       </c>
       <c r="H15" t="n">
-        <v>1.421727426654392</v>
+        <v>1.460547564839037</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8134990581269038</v>
+        <v>1.441210436984288</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6307670391790696</v>
+        <v>0.4655821710901672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7221330282080094</v>
+        <v>0.9533963040372276</v>
       </c>
       <c r="L15" t="n">
-        <v>1.508893993757679</v>
+        <v>0.4829979979244292</v>
       </c>
       <c r="M15" t="n">
-        <v>0.494660448566538</v>
+        <v>0.5604201082131782</v>
       </c>
       <c r="N15" t="n">
-        <v>1.017922472117025</v>
+        <v>1.023004402554457</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5157191679503071</v>
+        <v>0.5842783524493664</v>
       </c>
       <c r="P15" t="n">
-        <v>148.8155348571408</v>
+        <v>148.3162743330777</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.7934700725195</v>
+        <v>237.2942095484563</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9626391574635931</v>
+        <v>0.9531451593495885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7853277800661773</v>
+        <v>0.7808648269391054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8706640449229899</v>
+        <v>0.770006912349853</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3692996153361242</v>
+        <v>0.9636930653799543</v>
       </c>
       <c r="F16" t="n">
-        <v>0.820931609613166</v>
+        <v>0.90425692021243</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2498321260718144</v>
+        <v>0.3133185351760044</v>
       </c>
       <c r="H16" t="n">
-        <v>1.435514123172155</v>
+        <v>1.465357911282894</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8522228406346054</v>
+        <v>1.428626859222614</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6403296442121246</v>
+        <v>0.4841474232385021</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7462762856038248</v>
+        <v>0.9563871412305582</v>
       </c>
       <c r="L16" t="n">
-        <v>1.511021919872455</v>
+        <v>0.4920483519454601</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4998320978806927</v>
+        <v>0.55974863570714</v>
       </c>
       <c r="N16" t="n">
-        <v>1.018299188181097</v>
+        <v>1.022949309706324</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5211109850825555</v>
+        <v>0.5835782939686064</v>
       </c>
       <c r="P16" t="n">
-        <v>148.7739321647737</v>
+        <v>148.3210698433263</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.7518673801524</v>
+        <v>237.299005058705</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9618766599107239</v>
+        <v>0.9531952609090255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7834040139727254</v>
+        <v>0.7801656255168415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8652535471146573</v>
+        <v>0.771713650496086</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3601439981986341</v>
+        <v>0.9624065396699425</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8155391995638954</v>
+        <v>0.9039288608238172</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2549309507188295</v>
+        <v>0.3129835058173532</v>
       </c>
       <c r="H17" t="n">
-        <v>1.448378355897196</v>
+        <v>1.470033474413099</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8878737917465293</v>
+        <v>1.418025271225859</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6496250453356167</v>
+        <v>0.501303046921708</v>
       </c>
       <c r="K17" t="n">
-        <v>0.768749418541073</v>
+        <v>0.9596641590737837</v>
       </c>
       <c r="L17" t="n">
-        <v>1.512424333073699</v>
+        <v>0.5003881919548239</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5049068733131186</v>
+        <v>0.5594492879764467</v>
       </c>
       <c r="N17" t="n">
-        <v>1.018672656370258</v>
+        <v>1.022924770167008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5264018042113729</v>
+        <v>0.5832662023852824</v>
       </c>
       <c r="P17" t="n">
-        <v>148.7335251039729</v>
+        <v>148.3232095737994</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.7114603193515</v>
+        <v>237.301144789178</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9611335502429712</v>
+        <v>0.9531982147395373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7816177221759907</v>
+        <v>0.7794935553054742</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8602866391497619</v>
+        <v>0.77315343271035</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3513513603470267</v>
+        <v>0.9612200798956618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8105416727668858</v>
+        <v>0.9035845906847775</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2599001284887971</v>
+        <v>0.3129637535391203</v>
       </c>
       <c r="H18" t="n">
-        <v>1.460323297367079</v>
+        <v>1.474527611011112</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9206018325492076</v>
+        <v>1.409081908780734</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6585519253631378</v>
+        <v>0.5171243066481345</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7895768561877797</v>
+        <v>0.9631031077144344</v>
       </c>
       <c r="L18" t="n">
-        <v>1.513266787273859</v>
+        <v>0.5080365240699166</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5098040098790878</v>
+        <v>0.5594316343746752</v>
       </c>
       <c r="N18" t="n">
-        <v>1.019036628452422</v>
+        <v>1.02292332339288</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5315074220194257</v>
+        <v>0.5832477972331355</v>
       </c>
       <c r="P18" t="n">
-        <v>148.694915685914</v>
+        <v>148.3233357970742</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.6728509012926</v>
+        <v>237.3012710124528</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9604189172638442</v>
+        <v>0.9531661885513231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7799659202760654</v>
+        <v>0.778853608451737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8557390826676559</v>
+        <v>0.7743685446675391</v>
       </c>
       <c r="E19" t="n">
-        <v>0.342990422384139</v>
+        <v>0.9601285730254341</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8059282324324354</v>
+        <v>0.9032338444332731</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2646788825108017</v>
+        <v>0.3131779128071757</v>
       </c>
       <c r="H19" t="n">
-        <v>1.471368904277728</v>
+        <v>1.478806938568736</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9505666748919201</v>
+        <v>1.401534109858866</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6670405144955335</v>
+        <v>0.5316793839136256</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8088035946937269</v>
+        <v>0.9666067468862459</v>
       </c>
       <c r="L19" t="n">
-        <v>1.513671231745727</v>
+        <v>0.5150350415374694</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5144695156282846</v>
+        <v>0.5596230095405081</v>
       </c>
       <c r="N19" t="n">
-        <v>1.019386652768729</v>
+        <v>1.022939009689148</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5363715480072941</v>
+        <v>0.5834473196359791</v>
       </c>
       <c r="P19" t="n">
-        <v>148.6584759037717</v>
+        <v>148.3219676768042</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.6364111191504</v>
+        <v>237.2999028921828</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9597385984398865</v>
+        <v>0.9531089169608323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.778443752365659</v>
+        <v>0.7782488304236547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8515835350872383</v>
+        <v>0.775396164956754</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3351032093866791</v>
+        <v>0.9591261540378705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.801682408955128</v>
+        <v>0.9028842668851438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2692281776191865</v>
+        <v>0.3135608881964981</v>
       </c>
       <c r="H20" t="n">
-        <v>1.481547648103553</v>
+        <v>1.48285109202727</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9779484850101279</v>
+        <v>1.395150935645875</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6750481460354766</v>
+        <v>0.5450464878818653</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8264982719459744</v>
+        <v>0.9700987117638701</v>
       </c>
       <c r="L20" t="n">
-        <v>1.513746881682734</v>
+        <v>0.521415590960925</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5188720243173518</v>
+        <v>0.5599650776579715</v>
       </c>
       <c r="N20" t="n">
-        <v>1.019719870151892</v>
+        <v>1.022967061080409</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5409614806057043</v>
+        <v>0.5838039503013815</v>
       </c>
       <c r="P20" t="n">
-        <v>148.6243920299968</v>
+        <v>148.3195234340902</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.6023272453754</v>
+        <v>237.2974586494688</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9590963611558544</v>
+        <v>0.9530340660838528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7770450998221856</v>
+        <v>0.7776809931753215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8477942149674782</v>
+        <v>0.7762668920503084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.327707175797226</v>
+        <v>0.9582071987963943</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7977859053541527</v>
+        <v>0.9025416177542219</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2735228212947401</v>
+        <v>0.3140614163555172</v>
       </c>
       <c r="H21" t="n">
-        <v>1.490900444101963</v>
+        <v>1.486648222321524</v>
       </c>
       <c r="I21" t="n">
-        <v>1.002917142446592</v>
+        <v>1.389742320432201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6825570990535398</v>
+        <v>0.5573006155543951</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8427371415080228</v>
+        <v>0.9735214679932981</v>
       </c>
       <c r="L21" t="n">
-        <v>1.513592567631284</v>
+        <v>0.5272230987063556</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5229940929826455</v>
+        <v>0.5604118274586264</v>
       </c>
       <c r="N21" t="n">
-        <v>1.020034435352235</v>
+        <v>1.02300372273444</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5452590342679381</v>
+        <v>0.5842697191659497</v>
       </c>
       <c r="P21" t="n">
-        <v>148.592740437877</v>
+        <v>148.3163334374218</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.5706756532556</v>
+        <v>237.2942686528004</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.958494157110518</v>
+        <v>0.9529477186823277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7757632719588176</v>
+        <v>0.7771506989942423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.844343746183762</v>
+        <v>0.7770061506825228</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3208140580069944</v>
+        <v>0.9573664470747054</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7942185556187173</v>
+        <v>0.9022102910384582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2775497625187997</v>
+        <v>0.3146388218271083</v>
       </c>
       <c r="H22" t="n">
-        <v>1.49947203292658</v>
+        <v>1.490194301952181</v>
       </c>
       <c r="I22" t="n">
-        <v>1.025653034462302</v>
+        <v>1.3851503357396</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6895554579723846</v>
+        <v>0.5685119112448394</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8576042462173433</v>
+        <v>0.9768311234922195</v>
       </c>
       <c r="L22" t="n">
-        <v>1.513268495410953</v>
+        <v>0.5324969506622292</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5268299180179498</v>
+        <v>0.5609267526398686</v>
       </c>
       <c r="N22" t="n">
-        <v>1.020329392435665</v>
+        <v>1.023046015339268</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5492581583162477</v>
+        <v>0.5848065657781996</v>
       </c>
       <c r="P22" t="n">
-        <v>148.5635100749606</v>
+        <v>148.3126597907529</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.5414452903392</v>
+        <v>237.2905950061315</v>
       </c>
     </row>
     <row r="23">
@@ -1677,217 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.957932499308866</v>
+        <v>0.952854386300018</v>
       </c>
       <c r="C23" t="n">
-        <v>0.774590961328155</v>
+        <v>0.7766577764419361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.841205960925657</v>
+        <v>0.7776346030700517</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3144146131241611</v>
+        <v>0.9565983449719729</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7909585163615759</v>
+        <v>0.9018930039581703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2813055708246421</v>
+        <v>0.3152629358973702</v>
       </c>
       <c r="H23" t="n">
-        <v>1.507311279511815</v>
+        <v>1.493490477329151</v>
       </c>
       <c r="I23" t="n">
-        <v>1.046328586472347</v>
+        <v>1.381246635981752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6960526068002921</v>
+        <v>0.5787544353718059</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8711906194599154</v>
+        <v>0.9800005356767789</v>
       </c>
       <c r="L23" t="n">
-        <v>1.512828091204838</v>
+        <v>0.5372837948702351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5303824759780833</v>
+        <v>0.5614828010699617</v>
       </c>
       <c r="N23" t="n">
-        <v>1.020604490134433</v>
+        <v>1.023091729159175</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5529619560235529</v>
+        <v>0.5853862863411406</v>
       </c>
       <c r="P23" t="n">
-        <v>148.5366275196532</v>
+        <v>148.3086965424092</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.5145627350318</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_16_4_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9574112400313306</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7735208356917055</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8383564750491387</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3084984599263115</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7879852574336386</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2847912340137004</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.514467214570228</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.065104470924499</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7020590852556722</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.8835818216373973</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.512310937068964</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5336583495212086</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.020859800800981</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.5563772902854021</v>
-      </c>
-      <c r="P24" t="n">
-        <v>148.5119977587286</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>237.4899329741072</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_16_4_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9569292840738439</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7725455879888363</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8357711334883511</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3030467860295517</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7852774117412678</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2880140757206171</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.520988700449916</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.08213985082047</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7075939929417252</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.8948669011588322</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.511757399541013</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.536669428718105</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.021095860861791</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5595165573575035</v>
-      </c>
-      <c r="P25" t="n">
-        <v>148.4894918520211</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>237.4674270673998</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_16_4_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9564852125362389</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7716581159332052</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8334278706904764</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2980374623589011</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7828147993600253</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2909835841373431</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.526923230172355</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.097580120904447</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7126797967905378</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9051299588474926</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.511173514333638</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5394289426211233</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.021313365288373</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5623935494803546</v>
-      </c>
-      <c r="P26" t="n">
-        <v>148.468976850602</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>237.4469120659807</v>
+        <v>237.2866317577878</v>
       </c>
     </row>
   </sheetData>
